--- a/PV_ICE/baselines/SupportingMaterial/EnergyFlowsMath.xlsx
+++ b/PV_ICE/baselines/SupportingMaterial/EnergyFlowsMath.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hmirletz\Documents\GitHub\PV_ICE\PV_ICE\baselines\SupportingMaterial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9455713-8545-411F-AD99-FDB4F0232380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F57687D-C10E-4FA3-999D-1D5175EC3939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-39375" yWindow="-10140" windowWidth="28320" windowHeight="5910" xr2:uid="{0AD98CE3-9402-469D-934D-ECDAF8E72329}"/>
   </bookViews>
@@ -142,6 +142,9 @@
     <t>e_mat_MFG_fuelfraction</t>
   </si>
   <si>
+    <t>dm['mat_Manufacturing_Input']</t>
+  </si>
+  <si>
     <t xml:space="preserve">dm['mat_MFG_Scrap_Sentto_Recycling'] </t>
   </si>
   <si>
@@ -158,9 +161,6 @@
   </si>
   <si>
     <t>dm['mat_EOL_Recycled_2_HQ']</t>
-  </si>
-  <si>
-    <t>dm['mat_EnteringModuleManufacturing_virgin']</t>
   </si>
 </sst>
 </file>
@@ -525,7 +525,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -672,7 +672,7 @@
         <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
@@ -691,7 +691,7 @@
         <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
@@ -702,7 +702,7 @@
         <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
@@ -713,7 +713,7 @@
         <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
@@ -732,7 +732,7 @@
         <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
@@ -743,7 +743,7 @@
         <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
@@ -754,7 +754,7 @@
         <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/PV_ICE/baselines/SupportingMaterial/EnergyFlowsMath.xlsx
+++ b/PV_ICE/baselines/SupportingMaterial/EnergyFlowsMath.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hmirletz\Documents\GitHub\PV_ICE\PV_ICE\baselines\SupportingMaterial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F57687D-C10E-4FA3-999D-1D5175EC3939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFE89013-B2C3-4E34-8D54-3578507FB5A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-39375" yWindow="-10140" windowWidth="28320" windowHeight="5910" xr2:uid="{0AD98CE3-9402-469D-934D-ECDAF8E72329}"/>
+    <workbookView xWindow="-11055" yWindow="1815" windowWidth="11010" windowHeight="7665" xr2:uid="{0AD98CE3-9402-469D-934D-ECDAF8E72329}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="43">
   <si>
     <t>Area</t>
   </si>
@@ -142,9 +142,6 @@
     <t>e_mat_MFG_fuelfraction</t>
   </si>
   <si>
-    <t>dm['mat_Manufacturing_Input']</t>
-  </si>
-  <si>
     <t xml:space="preserve">dm['mat_MFG_Scrap_Sentto_Recycling'] </t>
   </si>
   <si>
@@ -161,6 +158,12 @@
   </si>
   <si>
     <t>dm['mat_EOL_Recycled_2_HQ']</t>
+  </si>
+  <si>
+    <t>dm['mat_Virgin_Stock']</t>
+  </si>
+  <si>
+    <t>Energies IN</t>
   </si>
 </sst>
 </file>
@@ -522,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{459B397A-6481-4C74-B83C-690D9D6CB616}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -672,7 +675,7 @@
         <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
@@ -691,7 +694,7 @@
         <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
@@ -702,7 +705,7 @@
         <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
@@ -713,7 +716,7 @@
         <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
@@ -732,7 +735,7 @@
         <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
@@ -743,7 +746,7 @@
         <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
@@ -754,7 +757,12 @@
         <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -764,6 +772,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005C828693A2AB16479402AA9FA8D35F96" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2350a35980f3cc94c6b7c62e158dcf3e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="010a033d-77e4-4e1f-83cd-c163f6881eef" xmlns:ns4="394cddcc-0f11-4bca-b380-2bccf2b71ec5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d1acca028db082b3f19a6b2d311e9ba4" ns3:_="" ns4:_="">
     <xsd:import namespace="010a033d-77e4-4e1f-83cd-c163f6881eef"/>
@@ -966,15 +983,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -982,6 +990,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3CBCFF6E-1365-4699-9C87-2AAFD3E8C832}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B770731-132F-45CF-84D1-D02F3DB6424F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -996,14 +1012,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3CBCFF6E-1365-4699-9C87-2AAFD3E8C832}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/PV_ICE/baselines/SupportingMaterial/EnergyFlowsMath.xlsx
+++ b/PV_ICE/baselines/SupportingMaterial/EnergyFlowsMath.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hmirletz\Documents\GitHub\PV_ICE\PV_ICE\baselines\SupportingMaterial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFE89013-B2C3-4E34-8D54-3578507FB5A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26906C64-E433-44A3-BE22-41ECB3CDAC58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-11055" yWindow="1815" windowWidth="11010" windowHeight="7665" xr2:uid="{0AD98CE3-9402-469D-934D-ECDAF8E72329}"/>
+    <workbookView xWindow="46335" yWindow="3885" windowWidth="11205" windowHeight="7365" xr2:uid="{0AD98CE3-9402-469D-934D-ECDAF8E72329}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -124,9 +124,6 @@
     <t>e_mat_Recycled_LQ</t>
   </si>
   <si>
-    <t>e_mat_Recycled_HQ</t>
-  </si>
-  <si>
     <t>MODULE ENERGIES</t>
   </si>
   <si>
@@ -164,6 +161,9 @@
   </si>
   <si>
     <t>Energies IN</t>
+  </si>
+  <si>
+    <t>e_mat_Recycled_HQ + LQ</t>
   </si>
 </sst>
 </file>
@@ -528,7 +528,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -541,7 +541,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -653,7 +653,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -664,23 +664,23 @@
         <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s">
         <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B15" t="s">
         <v>12</v>
@@ -694,7 +694,7 @@
         <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
@@ -705,7 +705,7 @@
         <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
@@ -716,7 +716,7 @@
         <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
@@ -735,7 +735,7 @@
         <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
@@ -746,23 +746,23 @@
         <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -772,15 +772,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005C828693A2AB16479402AA9FA8D35F96" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2350a35980f3cc94c6b7c62e158dcf3e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="010a033d-77e4-4e1f-83cd-c163f6881eef" xmlns:ns4="394cddcc-0f11-4bca-b380-2bccf2b71ec5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d1acca028db082b3f19a6b2d311e9ba4" ns3:_="" ns4:_="">
     <xsd:import namespace="010a033d-77e4-4e1f-83cd-c163f6881eef"/>
@@ -983,6 +974,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -990,14 +990,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3CBCFF6E-1365-4699-9C87-2AAFD3E8C832}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B770731-132F-45CF-84D1-D02F3DB6424F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1012,6 +1004,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3CBCFF6E-1365-4699-9C87-2AAFD3E8C832}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
